--- a/for_r/dnipro_school_coord.xlsx
+++ b/for_r/dnipro_school_coord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python_project\visikom_api\for_r\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586908D6-53A4-4F81-903F-860E69120B44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C952157F-8196-4A17-912A-7DD6894B13B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1501,11 +1501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:G179"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1565,7 +1564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>120128</v>
       </c>
@@ -1588,7 +1587,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>120144</v>
       </c>
@@ -1726,7 +1725,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>120147</v>
       </c>
@@ -1749,7 +1748,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>120134</v>
       </c>
@@ -1772,7 +1771,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>120156</v>
       </c>
@@ -1795,7 +1794,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>120151</v>
       </c>
@@ -1818,7 +1817,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>120155</v>
       </c>
@@ -1841,7 +1840,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>120153</v>
       </c>
@@ -1864,7 +1863,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>120138</v>
       </c>
@@ -1887,7 +1886,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>120148</v>
       </c>
@@ -1910,7 +1909,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>120118</v>
       </c>
@@ -1933,7 +1932,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>120137</v>
       </c>
@@ -1956,7 +1955,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>120043</v>
       </c>
@@ -2002,7 +2001,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>120146</v>
       </c>
@@ -2025,7 +2024,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>120149</v>
       </c>
@@ -2048,7 +2047,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>120145</v>
       </c>
@@ -2071,7 +2070,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>120042</v>
       </c>
@@ -2117,7 +2116,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>120047</v>
       </c>
@@ -2209,7 +2208,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>120140</v>
       </c>
@@ -2232,7 +2231,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>120088</v>
       </c>
@@ -2255,7 +2254,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>120103</v>
       </c>
@@ -2301,7 +2300,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>120133</v>
       </c>
@@ -2324,7 +2323,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>120150</v>
       </c>
@@ -2347,7 +2346,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>120132</v>
       </c>
@@ -2370,7 +2369,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>120143</v>
       </c>
@@ -2393,7 +2392,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>120063</v>
       </c>
@@ -2416,7 +2415,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>120136</v>
       </c>
@@ -2439,7 +2438,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>120142</v>
       </c>
@@ -2462,7 +2461,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>120139</v>
       </c>
@@ -2485,7 +2484,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>120123</v>
       </c>
@@ -2508,7 +2507,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>120131</v>
       </c>
@@ -2531,7 +2530,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>120054</v>
       </c>
@@ -2554,7 +2553,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>120033</v>
       </c>
@@ -2577,7 +2576,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>120152</v>
       </c>
@@ -2600,7 +2599,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>120045</v>
       </c>
@@ -2623,7 +2622,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>120064</v>
       </c>
@@ -2669,7 +2668,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>120119</v>
       </c>
@@ -2692,7 +2691,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>120122</v>
       </c>
@@ -2738,7 +2737,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>120001</v>
       </c>
@@ -2761,7 +2760,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>120127</v>
       </c>
@@ -2784,7 +2783,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>120120</v>
       </c>
@@ -2899,7 +2898,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>120124</v>
       </c>
@@ -2922,7 +2921,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>120125</v>
       </c>
@@ -2945,7 +2944,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>120058</v>
       </c>
@@ -2968,7 +2967,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>120061</v>
       </c>
@@ -3014,7 +3013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>120130</v>
       </c>
@@ -3060,7 +3059,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>120106</v>
       </c>
@@ -3083,7 +3082,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>120114</v>
       </c>
@@ -3106,7 +3105,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>120084</v>
       </c>
@@ -3129,7 +3128,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>120051</v>
       </c>
@@ -3152,7 +3151,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>120107</v>
       </c>
@@ -3175,7 +3174,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>120129</v>
       </c>
@@ -3244,7 +3243,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>120112</v>
       </c>
@@ -3290,7 +3289,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>120068</v>
       </c>
@@ -3359,7 +3358,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>120108</v>
       </c>
@@ -3382,7 +3381,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>120072</v>
       </c>
@@ -3405,7 +3404,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>120074</v>
       </c>
@@ -3428,7 +3427,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>120111</v>
       </c>
@@ -3451,7 +3450,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>120102</v>
       </c>
@@ -3474,7 +3473,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>120110</v>
       </c>
@@ -3497,7 +3496,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>120095</v>
       </c>
@@ -3543,7 +3542,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>120109</v>
       </c>
@@ -3589,7 +3588,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>120113</v>
       </c>
@@ -3612,7 +3611,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>120048</v>
       </c>
@@ -3635,7 +3634,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>120115</v>
       </c>
@@ -3658,7 +3657,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>120067</v>
       </c>
@@ -3681,7 +3680,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>120052</v>
       </c>
@@ -3773,7 +3772,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>120040</v>
       </c>
@@ -3796,7 +3795,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>120066</v>
       </c>
@@ -3819,7 +3818,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>120034</v>
       </c>
@@ -3842,7 +3841,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>120059</v>
       </c>
@@ -3911,7 +3910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>120065</v>
       </c>
@@ -3934,7 +3933,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>120062</v>
       </c>
@@ -3957,7 +3956,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>120073</v>
       </c>
@@ -3980,7 +3979,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>120069</v>
       </c>
@@ -4003,7 +4002,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>120049</v>
       </c>
@@ -4049,7 +4048,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>120071</v>
       </c>
@@ -4095,7 +4094,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>120076</v>
       </c>
@@ -4118,7 +4117,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>120070</v>
       </c>
@@ -4141,7 +4140,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>120090</v>
       </c>
@@ -4164,7 +4163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>120097</v>
       </c>
@@ -4187,7 +4186,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>120060</v>
       </c>
@@ -4210,7 +4209,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>120046</v>
       </c>
@@ -4233,7 +4232,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>120979</v>
       </c>
@@ -4279,7 +4278,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>120057</v>
       </c>
@@ -4302,7 +4301,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>120085</v>
       </c>
@@ -4325,7 +4324,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>120096</v>
       </c>
@@ -4371,7 +4370,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>120075</v>
       </c>
@@ -4394,7 +4393,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>120087</v>
       </c>
@@ -4417,7 +4416,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>120050</v>
       </c>
@@ -4463,7 +4462,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>120012</v>
       </c>
@@ -4509,7 +4508,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>120104</v>
       </c>
@@ -4532,7 +4531,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>120980</v>
       </c>
@@ -4555,7 +4554,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>120008</v>
       </c>
@@ -4578,7 +4577,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>120077</v>
       </c>
@@ -4647,7 +4646,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>120056</v>
       </c>
@@ -4693,7 +4692,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>120081</v>
       </c>
@@ -4739,7 +4738,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>120080</v>
       </c>
@@ -4762,7 +4761,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>120083</v>
       </c>
@@ -4808,7 +4807,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>120082</v>
       </c>
@@ -4831,7 +4830,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>120053</v>
       </c>
@@ -4854,7 +4853,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>120041</v>
       </c>
@@ -4877,7 +4876,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>120039</v>
       </c>
@@ -4923,7 +4922,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>120079</v>
       </c>
@@ -4946,7 +4945,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>120078</v>
       </c>
@@ -4969,7 +4968,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>120089</v>
       </c>
@@ -4992,7 +4991,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>120093</v>
       </c>
@@ -5015,7 +5014,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>120055</v>
       </c>
@@ -5038,7 +5037,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>120044</v>
       </c>
@@ -5061,7 +5060,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>120100</v>
       </c>
@@ -5084,7 +5083,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>120105</v>
       </c>
@@ -5107,7 +5106,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>120098</v>
       </c>
@@ -5130,7 +5129,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>120091</v>
       </c>
@@ -5153,7 +5152,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>120101</v>
       </c>
@@ -5176,7 +5175,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <v>120099</v>
       </c>
@@ -5199,7 +5198,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>120094</v>
       </c>
@@ -5222,7 +5221,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <v>120167</v>
       </c>
@@ -5245,7 +5244,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <v>120007</v>
       </c>
@@ -5268,7 +5267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>120168</v>
       </c>
@@ -5291,7 +5290,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <v>120157</v>
       </c>
@@ -5314,7 +5313,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <v>120161</v>
       </c>
@@ -5337,7 +5336,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>120172</v>
       </c>
@@ -5360,7 +5359,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <v>120171</v>
       </c>
@@ -5383,7 +5382,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <v>120163</v>
       </c>
@@ -5406,7 +5405,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>120166</v>
       </c>
@@ -5429,7 +5428,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>120170</v>
       </c>
@@ -5475,7 +5474,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <v>120165</v>
       </c>
@@ -5498,7 +5497,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <v>120160</v>
       </c>
@@ -5521,7 +5520,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <v>120159</v>
       </c>
@@ -5544,7 +5543,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <v>120158</v>
       </c>
@@ -5567,7 +5566,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <v>120162</v>
       </c>
@@ -5590,7 +5589,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <v>120169</v>
       </c>
@@ -5613,7 +5612,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <v>120164</v>
       </c>
@@ -5637,16 +5636,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G179" xr:uid="{91F84C9A-E1F6-45B7-B9E1-FD2F4B966DCB}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="Дніпро"/>
-      </filters>
-    </filterColumn>
-    <sortState ref="A2:G179">
-      <sortCondition ref="B1:B179"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:G179" xr:uid="{91F84C9A-E1F6-45B7-B9E1-FD2F4B966DCB}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>